--- a/feature_analysis.xlsx
+++ b/feature_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakashnand/personal/kaggle/house_price_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76120E0-2CAC-354E-B935-AA09FC40F911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D8138-14B7-D840-A3A9-9C553C9FE30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{50F77A24-110E-5541-8195-1F08BC216173}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18740" xr2:uid="{50F77A24-110E-5541-8195-1F08BC216173}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,25 +614,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBAD4B40-7695-8145-B434-566D88AE2613}" name="Table1" displayName="Table1" ref="A1:E82" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBAD4B40-7695-8145-B434-566D88AE2613}" name="Table1" displayName="Table1" ref="A1:E82" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E82" xr:uid="{826A1025-8237-F54A-8D37-A33E920850A9}">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="space"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="high"/>
+        <filter val="numerical"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{69CE6ECF-6924-CF46-824A-36E06BBA547C}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FA5A04B4-028B-3748-BCEF-B7018343873E}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4B2CCEF6-FF5E-FB40-9A53-8D9DADBC0CBB}" name="Information" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CE365E5E-AE3C-624B-A640-8A8DD3FDB769}" name="Relativity" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{013474ED-CE8A-5349-9EE1-EEC57B66F47F}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{69CE6ECF-6924-CF46-824A-36E06BBA547C}" name="Variable" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FA5A04B4-028B-3748-BCEF-B7018343873E}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4B2CCEF6-FF5E-FB40-9A53-8D9DADBC0CBB}" name="Information" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CE365E5E-AE3C-624B-A640-8A8DD3FDB769}" name="Relativity" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{013474ED-CE8A-5349-9EE1-EEC57B66F47F}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,7 +1178,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1496,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +1772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1873,7 +1868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1887,7 +1882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1946,7 +1941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1960,7 +1955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1977,7 +1972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +1986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2003,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2229,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -2262,7 +2257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -2372,7 +2367,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -2451,7 +2446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:166" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
